--- a/final_description.xlsx
+++ b/final_description.xlsx
@@ -14,42 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>Book Value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>EPS</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
 </sst>
 </file>
@@ -407,672 +374,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:22">
+      <c r="A1" s="1">
+        <v>10</v>
+      </c>
       <c r="B1" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N1" s="1">
+        <v>-3</v>
+      </c>
+      <c r="O1" s="1">
+        <v>-4</v>
+      </c>
+      <c r="P1" s="1">
+        <v>-5</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>-6</v>
+      </c>
+      <c r="R1" s="1">
+        <v>-7</v>
+      </c>
+      <c r="S1" s="1">
+        <v>-8</v>
+      </c>
+      <c r="T1" s="1">
+        <v>-9</v>
+      </c>
+      <c r="U1" s="1">
+        <v>-10</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1">
-        <v>-2</v>
-      </c>
-      <c r="O1" s="1">
-        <v>-3</v>
-      </c>
-      <c r="P1" s="1">
-        <v>-4</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>-5</v>
-      </c>
-      <c r="R1" s="1">
-        <v>-6</v>
-      </c>
-      <c r="S1" s="1">
-        <v>-7</v>
-      </c>
-      <c r="T1" s="1">
-        <v>-8</v>
-      </c>
-      <c r="U1" s="1">
-        <v>-9</v>
-      </c>
-      <c r="V1" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>559</v>
       </c>
       <c r="B2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="C2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="D2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="E2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="F2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="G2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="H2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="I2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="J2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="K2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="L2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="M2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="N2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="O2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="P2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="Q2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="R2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="S2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="T2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="U2">
-        <v>689</v>
+        <v>559</v>
       </c>
       <c r="V2">
-        <v>689</v>
-      </c>
-      <c r="W2">
-        <v>264</v>
-      </c>
-      <c r="X2">
-        <v>688</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>0.1192471906647201</v>
       </c>
       <c r="B3">
-        <v>-0.004339675363640178</v>
+        <v>-0.1137078494400044</v>
       </c>
       <c r="C3">
-        <v>-0.2628863985259314</v>
+        <v>0.04013248372697918</v>
       </c>
       <c r="D3">
-        <v>0.08539219633660594</v>
+        <v>-0.009423613727999665</v>
       </c>
       <c r="E3">
-        <v>-0.07531450092947646</v>
+        <v>0.005106974341424425</v>
       </c>
       <c r="F3">
-        <v>-0.1269929051315566</v>
+        <v>-0.07183308190748049</v>
       </c>
       <c r="G3">
-        <v>-0.1177391225598184</v>
+        <v>-0.006089442717364484</v>
       </c>
       <c r="H3">
-        <v>-0.08521079155215051</v>
+        <v>-0.05758035171844159</v>
       </c>
       <c r="I3">
-        <v>0.005038944041797794</v>
+        <v>-0.03853392899685324</v>
       </c>
       <c r="J3">
-        <v>-0.02971135650489464</v>
+        <v>0.1064502282187485</v>
       </c>
       <c r="K3">
-        <v>0.04971703513380495</v>
+        <v>-0.2889030176154104</v>
       </c>
       <c r="L3">
-        <v>-0.3896195553081298</v>
+        <v>-0.05781899919946815</v>
       </c>
       <c r="M3">
-        <v>-0.06478317184999476</v>
+        <v>0.04974463452516933</v>
       </c>
       <c r="N3">
-        <v>0.04324597165969164</v>
+        <v>-0.02251385616302541</v>
       </c>
       <c r="O3">
-        <v>0.1254129988404522</v>
+        <v>-0.1397608939437774</v>
       </c>
       <c r="P3">
-        <v>0.01609354729347432</v>
+        <v>-0.08557159104545235</v>
       </c>
       <c r="Q3">
-        <v>-0.1328724673274934</v>
+        <v>-0.0514447227782963</v>
       </c>
       <c r="R3">
-        <v>-0.01160853351105718</v>
+        <v>0.05225207889235781</v>
       </c>
       <c r="S3">
-        <v>0.1564081198248786</v>
+        <v>-0.09987577687042208</v>
       </c>
       <c r="T3">
-        <v>-0.06844562216496837</v>
+        <v>-0.2541876259519009</v>
       </c>
       <c r="U3">
-        <v>-0.1620486432551189</v>
+        <v>-0.05731022600269482</v>
       </c>
       <c r="V3">
-        <v>-0.004890439137343413</v>
-      </c>
-      <c r="W3">
-        <v>250.5269318181818</v>
-      </c>
-      <c r="X3">
-        <v>33.26938953488371</v>
+        <v>33.51327370304114</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>1.172002232843785</v>
       </c>
       <c r="B4">
-        <v>1.292969262810537</v>
+        <v>1.430930752444902</v>
       </c>
       <c r="C4">
-        <v>1.687746349993326</v>
+        <v>1.139399648460576</v>
       </c>
       <c r="D4">
-        <v>1.429832961491147</v>
+        <v>1.032457639161666</v>
       </c>
       <c r="E4">
-        <v>1.26791689971082</v>
+        <v>1.150371537249006</v>
       </c>
       <c r="F4">
-        <v>1.353175414057167</v>
+        <v>1.101678529668749</v>
       </c>
       <c r="G4">
-        <v>1.236655200924826</v>
+        <v>1.273754361466552</v>
       </c>
       <c r="H4">
-        <v>1.467225644103344</v>
+        <v>1.220735218199126</v>
       </c>
       <c r="I4">
-        <v>1.379285069612073</v>
+        <v>1.109474920942124</v>
       </c>
       <c r="J4">
-        <v>1.198874274925497</v>
+        <v>1.104594938702973</v>
       </c>
       <c r="K4">
-        <v>1.190392900962046</v>
+        <v>1.348285659646983</v>
       </c>
       <c r="L4">
-        <v>1.659554667545473</v>
+        <v>1.290439687030146</v>
       </c>
       <c r="M4">
-        <v>1.527043540480816</v>
+        <v>1.106375048508244</v>
       </c>
       <c r="N4">
-        <v>1.303410596306069</v>
+        <v>1.135606943833613</v>
       </c>
       <c r="O4">
-        <v>1.621962576488079</v>
+        <v>1.155382218509931</v>
       </c>
       <c r="P4">
-        <v>1.552472988191405</v>
+        <v>1.33627160307155</v>
       </c>
       <c r="Q4">
-        <v>1.644114562958801</v>
+        <v>1.011209364999603</v>
       </c>
       <c r="R4">
-        <v>1.14404734838856</v>
+        <v>1.187249841236078</v>
       </c>
       <c r="S4">
-        <v>1.409584935285562</v>
+        <v>1.174180988804344</v>
       </c>
       <c r="T4">
-        <v>1.289395998094648</v>
+        <v>1.097002900723225</v>
       </c>
       <c r="U4">
-        <v>1.235590725478868</v>
+        <v>1.271748389997836</v>
       </c>
       <c r="V4">
-        <v>1.348377586150129</v>
-      </c>
-      <c r="W4">
-        <v>277.8974066583432</v>
-      </c>
-      <c r="X4">
-        <v>40.09009040499469</v>
+        <v>37.8138814877615</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>-4.510197616801931</v>
       </c>
       <c r="B5">
-        <v>-8.028250426773331</v>
+        <v>-5.054150160130074</v>
       </c>
       <c r="C5">
-        <v>-8.384925472625985</v>
+        <v>-3.424895517942494</v>
       </c>
       <c r="D5">
-        <v>-7.629639391726047</v>
+        <v>-3.694981689738019</v>
       </c>
       <c r="E5">
-        <v>-6.275946598966218</v>
+        <v>-4.160935434566444</v>
       </c>
       <c r="F5">
-        <v>-6.614595201898815</v>
+        <v>-4.202768783398572</v>
       </c>
       <c r="G5">
-        <v>-5.921410334397526</v>
+        <v>-4.985273541580629</v>
       </c>
       <c r="H5">
-        <v>-7.198692802581828</v>
+        <v>-4.886726588932883</v>
       </c>
       <c r="I5">
-        <v>-5.621908472655167</v>
+        <v>-4.17012091594386</v>
       </c>
       <c r="J5">
-        <v>-8.045489675624685</v>
+        <v>-3.854325379036445</v>
       </c>
       <c r="K5">
-        <v>-5.104465098630499</v>
+        <v>-5.101966719559284</v>
       </c>
       <c r="L5">
-        <v>-11.00546947321682</v>
+        <v>-4.27894930797658</v>
       </c>
       <c r="M5">
-        <v>-5.074025191152979</v>
+        <v>-4.832830429384495</v>
       </c>
       <c r="N5">
-        <v>-5.443492296610642</v>
+        <v>-3.448252606390177</v>
       </c>
       <c r="O5">
-        <v>-7.859385675986123</v>
+        <v>-3.879850803901634</v>
       </c>
       <c r="P5">
-        <v>-8.027049817564986</v>
+        <v>-5.05340256719455</v>
       </c>
       <c r="Q5">
-        <v>-8.383663454053716</v>
+        <v>-4.037003626276394</v>
       </c>
       <c r="R5">
-        <v>-4.305617651705197</v>
+        <v>-3.337582489315165</v>
       </c>
       <c r="S5">
-        <v>-3.717966554603856</v>
+        <v>-3.689876048913048</v>
       </c>
       <c r="T5">
-        <v>-6.331013714844531</v>
+        <v>-4.726250422941726</v>
       </c>
       <c r="U5">
-        <v>-5.72609435112797</v>
+        <v>-4.564253773690893</v>
       </c>
       <c r="V5">
-        <v>-6.134210761630317</v>
-      </c>
-      <c r="W5">
-        <v>34.67</v>
-      </c>
-      <c r="X5">
-        <v>-35.49</v>
+        <v>-20.77</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>-0.4894196474919409</v>
       </c>
       <c r="B6">
-        <v>-0.5779711598885935</v>
+        <v>-0.9242045211858947</v>
       </c>
       <c r="C6">
-        <v>-1.018524675805372</v>
+        <v>-0.673890518627665</v>
       </c>
       <c r="D6">
-        <v>-0.7027683434757509</v>
+        <v>-0.529415812512618</v>
       </c>
       <c r="E6">
-        <v>-0.6091953920449317</v>
+        <v>-0.5952187893002736</v>
       </c>
       <c r="F6">
-        <v>-0.6621105096354269</v>
+        <v>-0.7679885791716805</v>
       </c>
       <c r="G6">
-        <v>-0.8605722598291748</v>
+        <v>-0.639775280606786</v>
       </c>
       <c r="H6">
-        <v>-0.7080858164017428</v>
+        <v>-0.7475416983456693</v>
       </c>
       <c r="I6">
-        <v>-0.7440439543237087</v>
+        <v>-0.6583397662825141</v>
       </c>
       <c r="J6">
-        <v>-0.6084752690745165</v>
+        <v>-0.432905133052381</v>
       </c>
       <c r="K6">
-        <v>-0.5299310221196074</v>
+        <v>-0.9524936248537728</v>
       </c>
       <c r="L6">
-        <v>-1.115875164994286</v>
+        <v>-0.6966256146963846</v>
       </c>
       <c r="M6">
-        <v>-0.8226977255268406</v>
+        <v>-0.5861855769305462</v>
       </c>
       <c r="N6">
-        <v>-0.5954200537785616</v>
+        <v>-0.7029583283126919</v>
       </c>
       <c r="O6">
-        <v>-0.6711549997800677</v>
+        <v>-0.6836581549525467</v>
       </c>
       <c r="P6">
-        <v>-0.6773994841832285</v>
+        <v>-0.822222953462616</v>
       </c>
       <c r="Q6">
-        <v>-0.8367292698001998</v>
+        <v>-0.6252369650634243</v>
       </c>
       <c r="R6">
-        <v>-0.6275059335605701</v>
+        <v>-0.6613797888794449</v>
       </c>
       <c r="S6">
-        <v>-0.6653004869603992</v>
+        <v>-0.8655527551509627</v>
       </c>
       <c r="T6">
-        <v>-0.8692642356144205</v>
+        <v>-0.8409374867503199</v>
       </c>
       <c r="U6">
-        <v>-0.8431047988728082</v>
+        <v>-0.7761205975169718</v>
       </c>
       <c r="V6">
-        <v>-0.7504090462188323</v>
-      </c>
-      <c r="W6">
-        <v>142.36</v>
-      </c>
-      <c r="X6">
-        <v>15.5875</v>
+        <v>16.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>-0.01270556175184413</v>
       </c>
       <c r="B7">
-        <v>-0.08258712552536937</v>
+        <v>-0.1167289787120827</v>
       </c>
       <c r="C7">
-        <v>-0.1849622222496648</v>
+        <v>-0.04846059531569633</v>
       </c>
       <c r="D7">
-        <v>-0.04164572554745756</v>
+        <v>0.002832857143245604</v>
       </c>
       <c r="E7">
-        <v>-0.002527711026243544</v>
+        <v>-0.1054838495612473</v>
       </c>
       <c r="F7">
-        <v>-0.1275501535533531</v>
+        <v>-0.1222167452918161</v>
       </c>
       <c r="G7">
-        <v>-0.13740268064503</v>
+        <v>-0.06341610440358442</v>
       </c>
       <c r="H7">
-        <v>-0.05219673603222657</v>
+        <v>-0.1849619048153775</v>
       </c>
       <c r="I7">
-        <v>-0.1360280505867573</v>
+        <v>-0.09515182233216021</v>
       </c>
       <c r="J7">
-        <v>-0.1056449028758857</v>
+        <v>0.07844119106619024</v>
       </c>
       <c r="K7">
-        <v>0.03496041502279645</v>
+        <v>-0.4133512332139572</v>
       </c>
       <c r="L7">
-        <v>-0.4303376372609097</v>
+        <v>-0.07380913582173904</v>
       </c>
       <c r="M7">
-        <v>-0.1141440106084009</v>
+        <v>-0.003932339730299274</v>
       </c>
       <c r="N7">
-        <v>-0.01076757369838306</v>
+        <v>-0.2075740481504934</v>
       </c>
       <c r="O7">
-        <v>-0.144340243913039</v>
+        <v>-0.1975429828622523</v>
       </c>
       <c r="P7">
-        <v>-0.1747292139977762</v>
+        <v>-0.1322436457955896</v>
       </c>
       <c r="Q7">
-        <v>-0.08227492079688176</v>
+        <v>-0.1120006027897832</v>
       </c>
       <c r="R7">
-        <v>-0.08758888686462452</v>
+        <v>-0.06628472870088364</v>
       </c>
       <c r="S7">
-        <v>0.03275479011399482</v>
+        <v>-0.2259180508929319</v>
       </c>
       <c r="T7">
-        <v>-0.2124716857964826</v>
+        <v>-0.2004858667632066</v>
       </c>
       <c r="U7">
-        <v>-0.1655551314410184</v>
+        <v>-0.01645873020073859</v>
       </c>
       <c r="V7">
-        <v>-0.02550605398800766</v>
-      </c>
-      <c r="W7">
-        <v>180.505</v>
-      </c>
-      <c r="X7">
-        <v>23.86</v>
+        <v>24.07</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>0.6242283469224237</v>
       </c>
       <c r="B8">
-        <v>0.5588633945642953</v>
+        <v>0.5647861653584523</v>
       </c>
       <c r="C8">
-        <v>0.5017879302382375</v>
+        <v>0.5756650180469302</v>
       </c>
       <c r="D8">
-        <v>0.5884757614765694</v>
+        <v>0.5360174857564306</v>
       </c>
       <c r="E8">
-        <v>0.5376747518744408</v>
+        <v>0.4345847499579913</v>
       </c>
       <c r="F8">
-        <v>0.3968477998262858</v>
+        <v>0.4246958069936042</v>
       </c>
       <c r="G8">
-        <v>0.3819701860006529</v>
+        <v>0.5049550202352838</v>
       </c>
       <c r="H8">
-        <v>0.5319145957032287</v>
+        <v>0.6247476531131446</v>
       </c>
       <c r="I8">
-        <v>0.6377594460294262</v>
+        <v>0.45995507640184</v>
       </c>
       <c r="J8">
-        <v>0.4604511031384569</v>
+        <v>0.6428462643089268</v>
       </c>
       <c r="K8">
-        <v>0.6201272191458514</v>
+        <v>0.24743234047077</v>
       </c>
       <c r="L8">
-        <v>0.3072187524265878</v>
+        <v>0.4955933496208749</v>
       </c>
       <c r="M8">
-        <v>0.5177294898794549</v>
+        <v>0.458771161833167</v>
       </c>
       <c r="N8">
-        <v>0.4856458233736696</v>
+        <v>0.4665026936562635</v>
       </c>
       <c r="O8">
-        <v>0.5927886459504685</v>
+        <v>0.3269825891482855</v>
       </c>
       <c r="P8">
-        <v>0.465318001078851</v>
+        <v>0.4920023540858842</v>
       </c>
       <c r="Q8">
-        <v>0.5110139207606906</v>
+        <v>0.5054574273610951</v>
       </c>
       <c r="R8">
-        <v>0.5195176593840096</v>
+        <v>0.5540396073609529</v>
       </c>
       <c r="S8">
-        <v>0.6108514234591909</v>
+        <v>0.5777950559018724</v>
       </c>
       <c r="T8">
-        <v>0.5306576657445667</v>
+        <v>0.3427766261861202</v>
       </c>
       <c r="U8">
-        <v>0.4125195683859442</v>
+        <v>0.4460367996233588</v>
       </c>
       <c r="V8">
-        <v>0.4710501595784802</v>
-      </c>
-      <c r="W8">
-        <v>222.6375</v>
-      </c>
-      <c r="X8">
-        <v>35.67</v>
+        <v>35.045</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>4.395791972620243</v>
       </c>
       <c r="B9">
-        <v>5.797081257640818</v>
+        <v>4.879387365093687</v>
       </c>
       <c r="C9">
-        <v>7.243475790857758</v>
+        <v>4.473860792882602</v>
       </c>
       <c r="D9">
-        <v>7.667926682202403</v>
+        <v>4.354326846491785</v>
       </c>
       <c r="E9">
-        <v>6.797159349186261</v>
+        <v>4.285559745388901</v>
       </c>
       <c r="F9">
-        <v>5.052217089789018</v>
+        <v>3.990163178621382</v>
       </c>
       <c r="G9">
-        <v>6.87565879256116</v>
+        <v>4.580035108167297</v>
       </c>
       <c r="H9">
-        <v>6.391882908161077</v>
+        <v>4.789296220405727</v>
       </c>
       <c r="I9">
-        <v>6.957935724666948</v>
+        <v>4.600192898374969</v>
       </c>
       <c r="J9">
-        <v>5.719634104499635</v>
+        <v>5.03339573746054</v>
       </c>
       <c r="K9">
-        <v>7.807586594432852</v>
+        <v>4.887675219403151</v>
       </c>
       <c r="L9">
-        <v>7.831564800066207</v>
+        <v>4.759696980757039</v>
       </c>
       <c r="M9">
-        <v>7.757465458778873</v>
+        <v>4.438892918079222</v>
       </c>
       <c r="N9">
-        <v>8.032327052748341</v>
+        <v>4.964584855960512</v>
       </c>
       <c r="O9">
-        <v>8.497126505380193</v>
+        <v>4.922127833039172</v>
       </c>
       <c r="P9">
-        <v>8.425384851469406</v>
+        <v>4.535186889081276</v>
       </c>
       <c r="Q9">
-        <v>5.750931328363747</v>
+        <v>4.628884092591337</v>
       </c>
       <c r="R9">
-        <v>8.376833735063213</v>
+        <v>4.925557614444615</v>
       </c>
       <c r="S9">
-        <v>6.501915555132517</v>
+        <v>4.795762800686655</v>
       </c>
       <c r="T9">
-        <v>5.465580737015751</v>
+        <v>4.605666793902788</v>
       </c>
       <c r="U9">
-        <v>5.582012596562949</v>
+        <v>4.37721611369619</v>
       </c>
       <c r="V9">
-        <v>5.642878394399253</v>
-      </c>
-      <c r="W9">
-        <v>1594.59</v>
-      </c>
-      <c r="X9">
         <v>343.25</v>
       </c>
     </row>
